--- a/datamining/final_data/tfidf1982_nltk.xlsx
+++ b/datamining/final_data/tfidf1982_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GJ44"/>
+  <dimension ref="A1:FH44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,945 +447,805 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>differences</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>education</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>gifted</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>illusive</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>makes</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>meaning</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>of</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>problem</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>qualitative</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>real</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>stalking</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>what</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>by</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>identifying</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>lies</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>live</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>misapplication</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>tests</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>we</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>ability</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>assisted</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>computer</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>effect</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>high</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>instruction</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>literacy</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>microcomputer</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>students</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>upon</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>approach</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>characteristics</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>creativity</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>affective</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>educational-implications</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>gifted-children</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>implications</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>review</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>underachieving</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>book</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>developmental</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>guidance</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>learners</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>pa</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>perrone</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>ra</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>talented</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>adolescents</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>college</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>evolution</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>program</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>editorial</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>positives</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>programming</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>average</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>discrimination</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>problem-solving</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>strategies</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>task</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>academically</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>children</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>comparison</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>interpersonal</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>sensitivity</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>acquisition</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>formal</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>intellectually</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>operations</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>comparisons</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>self-concept</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>social</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>acceleration</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>rate</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>underachievement</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>comparative-study</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>outcome</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>placement</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>special-class</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>developing</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>encouragement</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>plea</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>responsibility</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>teacher</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>world</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>districts</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>school</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>should</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>extra-school</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>meet</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>needs</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>saturday</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>super</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>youth</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>creative</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>encounters</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>expressive</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>potential</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>unleashing</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>giftedness</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>intellectual</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>non-entrenchment</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>admission</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>early</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>policies</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>survey</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>than</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>younger</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>center</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>community</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>educational</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>enrichment</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>holistic</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>distance</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>boys</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>girls</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>profiles</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>correlates</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>door</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>identification</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>production</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>programming-model</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>revolving</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>demythologizing</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>essay</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>constitutes</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>group</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>homogeneous</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>single</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>3-5-percent</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-      <c r="ES1" s="1" t="inlineStr">
-        <is>
-          <t>be</t>
-        </is>
-      </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>must</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
-        <is>
-          <t>same</t>
-        </is>
-      </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>sample</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
-        <is>
-          <t>your</t>
-        </is>
-      </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>losers</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
-        <is>
-          <t>there</t>
-        </is>
-      </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>winners</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>everyone</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
-        <is>
-          <t>have</t>
-        </is>
-      </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>need</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>scores</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>difficult</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>measure</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
-        <is>
-          <t>too</t>
-        </is>
-      </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>cosmetic</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>criteria</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>selection</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>use</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>indivisible</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>one</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>patch-on</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>curriculum</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>cure</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
-        <is>
-          <t>do</t>
-        </is>
-      </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>ostrich</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>programs</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>sick</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>syndrome</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
-        <is>
-          <t>having</t>
-        </is>
-      </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>means</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>like</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
-        <is>
-          <t>out</t>
-        </is>
-      </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>sore</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>stick</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>thumb</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>alone</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
-        <is>
-          <t>it</t>
-        </is>
-      </c>
-      <c r="GH1" s="1" t="inlineStr">
-        <is>
-          <t>you</t>
-        </is>
-      </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>santa-claus</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>waiting</t>
         </is>
@@ -1402,49 +1262,49 @@
         <v>1217</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>0.34</v>
       </c>
       <c r="E2" t="n">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="H2" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="I2" t="n">
-        <v>0.17</v>
+        <v>0.34</v>
       </c>
       <c r="J2" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="K2" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06</v>
+        <v>0.34</v>
       </c>
       <c r="M2" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="N2" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1882,90 +1742,6 @@
         <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1986,16 +1762,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -2004,46 +1780,46 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.09</v>
+        <v>0.46</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="S3" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -2460,90 +2236,6 @@
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2582,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -2597,61 +2289,61 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
         <v>0</v>
@@ -3038,90 +2730,6 @@
         <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3136,7 +2744,7 @@
         <v>1220</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -3166,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -3184,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -3211,13 +2819,13 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AF5" t="n">
         <v>0</v>
@@ -3232,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
@@ -3616,90 +3224,6 @@
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3738,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3792,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -3813,19 +3337,19 @@
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
@@ -4194,90 +3718,6 @@
         <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4298,10 +3738,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G7" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4361,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -4382,16 +3822,16 @@
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AL7" t="n">
         <v>0</v>
@@ -4406,16 +3846,16 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
         <v>0</v>
@@ -4772,90 +4212,6 @@
         <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4873,10 +4229,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="F8" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -4894,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -4909,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -4966,61 +4322,61 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
         <v>0</v>
@@ -5350,90 +4706,6 @@
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5448,16 +4720,16 @@
         <v>1224</v>
       </c>
       <c r="D9" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="G9" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -5472,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -5577,16 +4849,16 @@
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="AV9" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="AW9" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="AX9" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AY9" t="n">
         <v>0</v>
@@ -5601,19 +4873,19 @@
         <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="BH9" t="n">
         <v>0</v>
@@ -5928,90 +5200,6 @@
         <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6167,13 +5355,13 @@
         <v>0</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="BA10" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="BB10" t="n">
         <v>0</v>
@@ -6194,13 +5382,13 @@
         <v>0</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="BK10" t="n">
         <v>0</v>
@@ -6506,90 +5694,6 @@
         <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6604,16 +5708,16 @@
         <v>1226</v>
       </c>
       <c r="D11" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -6628,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -6715,10 +5819,10 @@
         <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
         <v>0</v>
@@ -6739,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
         <v>0</v>
@@ -6754,22 +5858,22 @@
         <v>0</v>
       </c>
       <c r="BB11" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="BC11" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="BE11" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="BF11" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="BG11" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="BH11" t="n">
         <v>0</v>
@@ -6781,25 +5885,25 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="BR11" t="n">
         <v>0</v>
@@ -7084,90 +6188,6 @@
         <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7182,7 +6202,7 @@
         <v>1227</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -7206,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7296,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="n">
         <v>0</v>
@@ -7308,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -7350,25 +6370,25 @@
         <v>0</v>
       </c>
       <c r="BH12" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="BL12" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="BM12" t="n">
         <v>0</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
         <v>0</v>
@@ -7380,19 +6400,19 @@
         <v>0</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BW12" t="n">
         <v>0</v>
@@ -7662,90 +6682,6 @@
         <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7784,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -7805,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -7850,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
@@ -7871,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AP13" t="n">
         <v>0</v>
@@ -7943,16 +6879,16 @@
         <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BN13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BO13" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="BP13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BQ13" t="n">
         <v>0</v>
@@ -7973,16 +6909,16 @@
         <v>0</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="CA13" t="n">
         <v>0</v>
@@ -8240,90 +7176,6 @@
         <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8344,10 +7196,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -8362,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8377,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -8452,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
         <v>0</v>
@@ -8533,19 +7385,19 @@
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BR14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BS14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BT14" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BU14" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BV14" t="n">
         <v>0</v>
@@ -8563,19 +7415,19 @@
         <v>0</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="CF14" t="n">
         <v>0</v>
@@ -8818,90 +7670,6 @@
         <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8940,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9030,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
         <v>0</v>
@@ -9126,13 +7894,13 @@
         <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="BW15" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="BX15" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="BY15" t="n">
         <v>0</v>
@@ -9156,13 +7924,13 @@
         <v>0</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="CI15" t="n">
         <v>0</v>
@@ -9396,90 +8164,6 @@
         <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9494,16 +8178,16 @@
         <v>1231</v>
       </c>
       <c r="D16" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -9518,7 +8202,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -9563,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -9584,7 +8268,7 @@
         <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
@@ -9650,13 +8334,13 @@
         <v>0</v>
       </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="BE16" t="n">
         <v>0</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="BG16" t="n">
         <v>0</v>
@@ -9677,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="BN16" t="n">
         <v>0</v>
@@ -9713,19 +8397,19 @@
         <v>0</v>
       </c>
       <c r="BY16" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="CA16" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="CB16" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="CC16" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="CD16" t="n">
         <v>0</v>
@@ -9743,19 +8427,19 @@
         <v>0</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="CL16" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="CM16" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="CN16" t="n">
         <v>0</v>
@@ -9974,90 +8658,6 @@
         <v>0</v>
       </c>
       <c r="FH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10087,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -10153,7 +8753,7 @@
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="AF17" t="n">
         <v>0</v>
@@ -10162,7 +8762,7 @@
         <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
@@ -10174,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
@@ -10183,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AP17" t="n">
         <v>0</v>
@@ -10306,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="CD17" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
@@ -10336,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="CO17" t="n">
         <v>0</v>
@@ -10552,90 +9152,6 @@
         <v>0</v>
       </c>
       <c r="FH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10650,16 +9166,16 @@
         <v>1233</v>
       </c>
       <c r="D18" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -10674,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -10689,7 +9205,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -10761,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AP18" t="n">
         <v>0</v>
@@ -10785,7 +9301,7 @@
         <v>0</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AX18" t="n">
         <v>0</v>
@@ -10812,41 +9328,41 @@
         <v>0</v>
       </c>
       <c r="BF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ18" t="n">
         <v>0.34</v>
       </c>
-      <c r="BG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>0</v>
-      </c>
       <c r="BR18" t="n">
         <v>0</v>
       </c>
@@ -10875,7 +9391,7 @@
         <v>0</v>
       </c>
       <c r="CA18" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="CB18" t="n">
         <v>0</v>
@@ -10887,19 +9403,19 @@
         <v>0</v>
       </c>
       <c r="CE18" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CF18" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CG18" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CH18" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="CI18" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CJ18" t="n">
         <v>0</v>
@@ -10917,19 +9433,19 @@
         <v>0</v>
       </c>
       <c r="CO18" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="CP18" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="CQ18" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="CR18" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="CS18" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="CT18" t="n">
         <v>0</v>
@@ -11130,90 +9646,6 @@
         <v>0</v>
       </c>
       <c r="FH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11234,10 +9666,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="G19" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -11480,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="CK19" t="n">
         <v>0</v>
@@ -11510,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="CT19" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="CU19" t="n">
         <v>0</v>
@@ -11708,90 +10140,6 @@
         <v>0</v>
       </c>
       <c r="FH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11812,10 +10160,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="G20" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -11947,13 +10295,13 @@
         <v>0</v>
       </c>
       <c r="AY20" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AZ20" t="n">
         <v>0</v>
       </c>
       <c r="BA20" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="BB20" t="n">
         <v>0</v>
@@ -11974,13 +10322,13 @@
         <v>0</v>
       </c>
       <c r="BH20" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="BI20" t="n">
         <v>0</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BK20" t="n">
         <v>0</v>
@@ -12052,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="CH20" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="CI20" t="n">
         <v>0</v>
@@ -12061,10 +10409,10 @@
         <v>0</v>
       </c>
       <c r="CK20" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="CL20" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="CM20" t="n">
         <v>0</v>
@@ -12082,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="CR20" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CS20" t="n">
         <v>0</v>
@@ -12091,13 +10439,13 @@
         <v>0</v>
       </c>
       <c r="CU20" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="CV20" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="CW20" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CX20" t="n">
         <v>0</v>
@@ -12286,90 +10634,6 @@
         <v>0</v>
       </c>
       <c r="FH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12390,10 +10654,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -12408,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -12423,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -12531,7 +10795,7 @@
         <v>0</v>
       </c>
       <c r="BA21" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="BB21" t="n">
         <v>0</v>
@@ -12558,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="BK21" t="n">
         <v>0</v>
@@ -12645,22 +10909,22 @@
         <v>0</v>
       </c>
       <c r="CM21" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CN21" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CO21" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CP21" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CQ21" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CR21" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="CS21" t="n">
         <v>0</v>
@@ -12678,25 +10942,25 @@
         <v>0</v>
       </c>
       <c r="CX21" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="CY21" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="DA21" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="DB21" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="DC21" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="DD21" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="DE21" t="n">
         <v>0</v>
@@ -12864,90 +11128,6 @@
         <v>0</v>
       </c>
       <c r="FH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12986,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -13001,7 +11181,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -13076,7 +11256,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="AQ22" t="n">
         <v>0</v>
@@ -13241,19 +11421,19 @@
         <v>0</v>
       </c>
       <c r="CS22" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="CT22" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="CU22" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="CV22" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="CW22" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="CX22" t="n">
         <v>0</v>
@@ -13277,19 +11457,19 @@
         <v>0</v>
       </c>
       <c r="DE22" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DG22" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DH22" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DI22" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DJ22" t="n">
         <v>0</v>
@@ -13442,90 +11622,6 @@
         <v>0</v>
       </c>
       <c r="FH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13555,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -13564,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -13579,7 +11675,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -13759,7 +11855,7 @@
         <v>0</v>
       </c>
       <c r="BY23" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="BZ23" t="n">
         <v>0</v>
@@ -13789,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="CI23" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="CJ23" t="n">
         <v>0</v>
@@ -13834,13 +11930,13 @@
         <v>0</v>
       </c>
       <c r="CX23" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="CY23" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="CZ23" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="DA23" t="n">
         <v>0</v>
@@ -13870,13 +11966,13 @@
         <v>0</v>
       </c>
       <c r="DJ23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="DK23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="DL23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="DM23" t="n">
         <v>0</v>
@@ -14020,90 +12116,6 @@
         <v>0</v>
       </c>
       <c r="FH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14118,16 +12130,16 @@
         <v>1239</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -14142,7 +12154,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -14187,7 +12199,7 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="AB24" t="n">
         <v>0</v>
@@ -14208,10 +12220,10 @@
         <v>0</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AJ24" t="n">
         <v>0</v>
@@ -14235,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -14268,7 +12280,7 @@
         <v>0</v>
       </c>
       <c r="BB24" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="BC24" t="n">
         <v>0</v>
@@ -14280,7 +12292,7 @@
         <v>0</v>
       </c>
       <c r="BF24" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="BG24" t="n">
         <v>0</v>
@@ -14295,7 +12307,7 @@
         <v>0</v>
       </c>
       <c r="BK24" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="BL24" t="n">
         <v>0</v>
@@ -14394,7 +12406,7 @@
         <v>0</v>
       </c>
       <c r="CR24" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="CS24" t="n">
         <v>0</v>
@@ -14421,19 +12433,19 @@
         <v>0</v>
       </c>
       <c r="DA24" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="DB24" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="DC24" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="DD24" t="n">
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
       <c r="DE24" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="DF24" t="n">
         <v>0</v>
@@ -14457,22 +12469,22 @@
         <v>0</v>
       </c>
       <c r="DM24" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="DN24" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="DO24" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="DP24" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="DQ24" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="DR24" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="DS24" t="n">
         <v>0</v>
@@ -14598,90 +12610,6 @@
         <v>0</v>
       </c>
       <c r="FH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14696,7 +12624,7 @@
         <v>1240</v>
       </c>
       <c r="D25" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -14735,7 +12663,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -14771,7 +12699,7 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -14792,7 +12720,7 @@
         <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
         <v>0</v>
@@ -15014,22 +12942,22 @@
         <v>0</v>
       </c>
       <c r="DF25" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DG25" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DH25" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="DI25" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DJ25" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DK25" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DL25" t="n">
         <v>0</v>
@@ -15053,22 +12981,22 @@
         <v>0</v>
       </c>
       <c r="DS25" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DT25" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DU25" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="DV25" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DW25" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DX25" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DY25" t="n">
         <v>0</v>
@@ -15176,90 +13104,6 @@
         <v>0</v>
       </c>
       <c r="FH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15289,7 +13133,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -15364,7 +13208,7 @@
         <v>0</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AI26" t="n">
         <v>0</v>
@@ -15385,10 +13229,10 @@
         <v>0</v>
       </c>
       <c r="AO26" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AQ26" t="n">
         <v>0</v>
@@ -15478,10 +13322,10 @@
         <v>0</v>
       </c>
       <c r="BT26" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="BU26" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="BV26" t="n">
         <v>0</v>
@@ -15508,10 +13352,10 @@
         <v>0</v>
       </c>
       <c r="CD26" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="CE26" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="CF26" t="n">
         <v>0</v>
@@ -15610,7 +13454,7 @@
         <v>0</v>
       </c>
       <c r="DL26" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="DM26" t="n">
         <v>0</v>
@@ -15649,7 +13493,7 @@
         <v>0</v>
       </c>
       <c r="DY26" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="DZ26" t="n">
         <v>0</v>
@@ -15754,90 +13598,6 @@
         <v>0</v>
       </c>
       <c r="FH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15966,7 +13726,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="AQ27" t="n">
         <v>0</v>
@@ -15978,7 +13738,7 @@
         <v>0</v>
       </c>
       <c r="AT27" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -16002,7 +13762,7 @@
         <v>0</v>
       </c>
       <c r="BB27" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="BC27" t="n">
         <v>0</v>
@@ -16041,7 +13801,7 @@
         <v>0</v>
       </c>
       <c r="BO27" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="BP27" t="n">
         <v>0</v>
@@ -16071,113 +13831,113 @@
         <v>0</v>
       </c>
       <c r="BY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH27" t="n">
         <v>0.37</v>
       </c>
-      <c r="BZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH27" t="n">
-        <v>0</v>
-      </c>
       <c r="DI27" t="n">
         <v>0</v>
       </c>
@@ -16191,13 +13951,13 @@
         <v>0</v>
       </c>
       <c r="DM27" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="DN27" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="DO27" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="DP27" t="n">
         <v>0</v>
@@ -16215,7 +13975,7 @@
         <v>0</v>
       </c>
       <c r="DU27" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="DV27" t="n">
         <v>0</v>
@@ -16230,13 +13990,13 @@
         <v>0</v>
       </c>
       <c r="DZ27" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="EA27" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="EB27" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="EC27" t="n">
         <v>0</v>
@@ -16332,90 +14092,6 @@
         <v>0</v>
       </c>
       <c r="FH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16454,7 +14130,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -16469,7 +14145,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -16544,7 +14220,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AQ28" t="n">
         <v>0</v>
@@ -16709,7 +14385,7 @@
         <v>0</v>
       </c>
       <c r="CS28" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="CT28" t="n">
         <v>0</v>
@@ -16745,55 +14421,55 @@
         <v>0</v>
       </c>
       <c r="DE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="DQ28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="DR28" t="n">
         <v>0.32</v>
       </c>
-      <c r="DF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR28" t="n">
-        <v>0</v>
-      </c>
       <c r="DS28" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DT28" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DU28" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DV28" t="n">
         <v>0</v>
@@ -16817,22 +14493,22 @@
         <v>0</v>
       </c>
       <c r="EC28" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="ED28" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="EE28" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="EF28" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="EG28" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="EH28" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="EI28" t="n">
         <v>0</v>
@@ -16910,90 +14586,6 @@
         <v>0</v>
       </c>
       <c r="FH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17011,13 +14603,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="F29" t="n">
-        <v>0.32</v>
+        <v>0.13</v>
       </c>
       <c r="G29" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -17149,7 +14741,7 @@
         <v>0</v>
       </c>
       <c r="AY29" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AZ29" t="n">
         <v>0</v>
@@ -17176,7 +14768,7 @@
         <v>0</v>
       </c>
       <c r="BH29" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="BI29" t="n">
         <v>0</v>
@@ -17374,10 +14966,10 @@
         <v>0</v>
       </c>
       <c r="DV29" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="DW29" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="DX29" t="n">
         <v>0</v>
@@ -17413,13 +15005,13 @@
         <v>0</v>
       </c>
       <c r="EI29" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="EJ29" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="EK29" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="EL29" t="n">
         <v>0</v>
@@ -17488,90 +15080,6 @@
         <v>0</v>
       </c>
       <c r="FH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17586,16 +15094,16 @@
         <v>1245</v>
       </c>
       <c r="D30" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="G30" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -17625,7 +15133,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -17958,16 +15466,16 @@
         <v>0</v>
       </c>
       <c r="DX30" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="DY30" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="DZ30" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="EA30" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="EB30" t="n">
         <v>0</v>
@@ -18000,16 +15508,16 @@
         <v>0</v>
       </c>
       <c r="EL30" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="EM30" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="EN30" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="EO30" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="EP30" t="n">
         <v>0</v>
@@ -18066,90 +15574,6 @@
         <v>0</v>
       </c>
       <c r="FH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18170,10 +15594,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="G31" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -18188,7 +15612,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -18203,7 +15627,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -18536,7 +15960,7 @@
         <v>0</v>
       </c>
       <c r="DX31" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="DY31" t="n">
         <v>0</v>
@@ -18548,10 +15972,10 @@
         <v>0</v>
       </c>
       <c r="EB31" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="EC31" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="ED31" t="n">
         <v>0</v>
@@ -18578,7 +16002,7 @@
         <v>0</v>
       </c>
       <c r="EL31" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="EM31" t="n">
         <v>0</v>
@@ -18590,10 +16014,10 @@
         <v>0</v>
       </c>
       <c r="EP31" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="EQ31" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="ER31" t="n">
         <v>0</v>
@@ -18644,90 +16068,6 @@
         <v>0</v>
       </c>
       <c r="FH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18781,7 +16121,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -19129,13 +16469,13 @@
         <v>0</v>
       </c>
       <c r="EC32" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="ED32" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="EE32" t="n">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="EF32" t="n">
         <v>0</v>
@@ -19171,25 +16511,25 @@
         <v>0</v>
       </c>
       <c r="EQ32" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="ER32" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="ES32" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="ET32" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="EU32" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="EV32" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="EW32" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="EX32" t="n">
         <v>0</v>
@@ -19222,90 +16562,6 @@
         <v>0</v>
       </c>
       <c r="FH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19335,7 +16591,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -19434,41 +16690,41 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA33" t="n">
         <v>0.3</v>
       </c>
-      <c r="AQ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>0</v>
-      </c>
       <c r="BB33" t="n">
         <v>0</v>
       </c>
@@ -19494,7 +16750,7 @@
         <v>0</v>
       </c>
       <c r="BJ33" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="BK33" t="n">
         <v>0</v>
@@ -19674,7 +16930,7 @@
         <v>0</v>
       </c>
       <c r="DR33" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="DS33" t="n">
         <v>0</v>
@@ -19710,16 +16966,16 @@
         <v>0</v>
       </c>
       <c r="ED33" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="EE33" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="EF33" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="EG33" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="EH33" t="n">
         <v>0</v>
@@ -19755,10 +17011,10 @@
         <v>0</v>
       </c>
       <c r="ES33" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="ET33" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="EU33" t="n">
         <v>0</v>
@@ -19770,13 +17026,13 @@
         <v>0</v>
       </c>
       <c r="EX33" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="EY33" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="EZ33" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="FA33" t="n">
         <v>0</v>
@@ -19800,90 +17056,6 @@
         <v>0</v>
       </c>
       <c r="FH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19937,7 +17109,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -19961,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
@@ -20060,7 +17232,7 @@
         <v>0</v>
       </c>
       <c r="BF34" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="BG34" t="n">
         <v>0</v>
@@ -20207,7 +17379,7 @@
         <v>0</v>
       </c>
       <c r="DC34" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="DD34" t="n">
         <v>0</v>
@@ -20300,13 +17472,13 @@
         <v>0</v>
       </c>
       <c r="EH34" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="EI34" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="EJ34" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="EK34" t="n">
         <v>0</v>
@@ -20339,7 +17511,7 @@
         <v>0</v>
       </c>
       <c r="EU34" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="EV34" t="n">
         <v>0</v>
@@ -20357,16 +17529,16 @@
         <v>0</v>
       </c>
       <c r="FA34" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="FB34" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="FC34" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="FD34" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="FE34" t="n">
         <v>0</v>
@@ -20378,90 +17550,6 @@
         <v>0</v>
       </c>
       <c r="FH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20557,7 +17645,7 @@
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AF35" t="n">
         <v>0</v>
@@ -20578,7 +17666,7 @@
         <v>0</v>
       </c>
       <c r="AL35" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AM35" t="n">
         <v>0</v>
@@ -20785,7 +17873,7 @@
         <v>0</v>
       </c>
       <c r="DC35" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="DD35" t="n">
         <v>0</v>
@@ -20887,10 +17975,10 @@
         <v>0</v>
       </c>
       <c r="EK35" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="EL35" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="EM35" t="n">
         <v>0</v>
@@ -20947,99 +18035,15 @@
         <v>0</v>
       </c>
       <c r="FE35" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="FF35" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="FG35" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="FH35" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="FI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21078,7 +18082,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -21210,7 +18214,7 @@
         <v>0</v>
       </c>
       <c r="BD36" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="BE36" t="n">
         <v>0</v>
@@ -21237,7 +18241,7 @@
         <v>0</v>
       </c>
       <c r="BM36" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="BN36" t="n">
         <v>0</v>
@@ -21471,16 +18475,16 @@
         <v>0</v>
       </c>
       <c r="EM36" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="EN36" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="EO36" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="EP36" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="EQ36" t="n">
         <v>0</v>
@@ -21534,90 +18538,6 @@
         <v>0</v>
       </c>
       <c r="FH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI36" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="FJ36" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="FK36" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="FL36" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="FM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21770,7 +18690,7 @@
         <v>0</v>
       </c>
       <c r="AX37" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AY37" t="n">
         <v>0</v>
@@ -21794,10 +18714,10 @@
         <v>0</v>
       </c>
       <c r="BF37" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="BG37" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="BH37" t="n">
         <v>0</v>
@@ -22061,10 +18981,10 @@
         <v>0</v>
       </c>
       <c r="EQ37" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="ER37" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="ES37" t="n">
         <v>0</v>
@@ -22112,90 +19032,6 @@
         <v>0</v>
       </c>
       <c r="FH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM37" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="FN37" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="FO37" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="FP37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22249,7 +19085,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -22285,7 +19121,7 @@
         <v>0</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -22306,7 +19142,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AK38" t="n">
         <v>0</v>
@@ -22357,7 +19193,7 @@
         <v>0</v>
       </c>
       <c r="BA38" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="BB38" t="n">
         <v>0</v>
@@ -22384,7 +19220,7 @@
         <v>0</v>
       </c>
       <c r="BJ38" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="BK38" t="n">
         <v>0</v>
@@ -22519,7 +19355,7 @@
         <v>0</v>
       </c>
       <c r="DC38" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="DD38" t="n">
         <v>0</v>
@@ -22645,7 +19481,7 @@
         <v>0</v>
       </c>
       <c r="ES38" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="ET38" t="n">
         <v>0</v>
@@ -22690,90 +19526,6 @@
         <v>0</v>
       </c>
       <c r="FH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP38" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="FQ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22788,16 +19540,16 @@
         <v>1254</v>
       </c>
       <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>0.17</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
       <c r="G39" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -22827,7 +19579,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -22950,7 +19702,7 @@
         <v>0</v>
       </c>
       <c r="BF39" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="BG39" t="n">
         <v>0</v>
@@ -23169,7 +19921,7 @@
         <v>0</v>
       </c>
       <c r="EA39" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="EB39" t="n">
         <v>0</v>
@@ -23211,7 +19963,7 @@
         <v>0</v>
       </c>
       <c r="EO39" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="EP39" t="n">
         <v>0</v>
@@ -23226,7 +19978,7 @@
         <v>0</v>
       </c>
       <c r="ET39" t="n">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="EU39" t="n">
         <v>0</v>
@@ -23241,7 +19993,7 @@
         <v>0</v>
       </c>
       <c r="EY39" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="EZ39" t="n">
         <v>0</v>
@@ -23262,96 +20014,12 @@
         <v>0</v>
       </c>
       <c r="FF39" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="FG39" t="n">
         <v>0</v>
       </c>
       <c r="FH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ39" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="FR39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23372,10 +20040,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -23405,7 +20073,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -23807,22 +20475,22 @@
         <v>0</v>
       </c>
       <c r="EU40" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="EV40" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="EW40" t="n">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="EX40" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="EY40" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="EZ40" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="FA40" t="n">
         <v>0</v>
@@ -23846,90 +20514,6 @@
         <v>0</v>
       </c>
       <c r="FH40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR40" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="FS40" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="FT40" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="FU40" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="FV40" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="FW40" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="FX40" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="FY40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23944,16 +20528,16 @@
         <v>1256</v>
       </c>
       <c r="D41" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="F41" t="n">
-        <v>0.36</v>
+        <v>0.16</v>
       </c>
       <c r="G41" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -24082,7 +20666,7 @@
         <v>0</v>
       </c>
       <c r="AX41" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="AY41" t="n">
         <v>0</v>
@@ -24109,7 +20693,7 @@
         <v>0</v>
       </c>
       <c r="BG41" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="BH41" t="n">
         <v>0</v>
@@ -24403,7 +20987,7 @@
         <v>0</v>
       </c>
       <c r="FA41" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="FB41" t="n">
         <v>0</v>
@@ -24424,90 +21008,6 @@
         <v>0</v>
       </c>
       <c r="FH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY41" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="FZ41" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="GA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24522,16 +21022,16 @@
         <v>1257</v>
       </c>
       <c r="D42" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G42" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -24813,7 +21313,7 @@
         <v>0</v>
       </c>
       <c r="CW42" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="CX42" t="n">
         <v>0</v>
@@ -24969,7 +21469,7 @@
         <v>0</v>
       </c>
       <c r="EW42" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="EX42" t="n">
         <v>0</v>
@@ -24984,16 +21484,16 @@
         <v>0</v>
       </c>
       <c r="FB42" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="FC42" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="FD42" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="FE42" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="FF42" t="n">
         <v>0</v>
@@ -25002,90 +21502,6 @@
         <v>0</v>
       </c>
       <c r="FH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU42" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="FV42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA42" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="GB42" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="GC42" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="GD42" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="GE42" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="GF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25409,7 +21825,7 @@
         <v>0</v>
       </c>
       <c r="DC43" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="DD43" t="n">
         <v>0</v>
@@ -25562,7 +21978,7 @@
         <v>0</v>
       </c>
       <c r="FB43" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="FC43" t="n">
         <v>0</v>
@@ -25574,96 +21990,12 @@
         <v>0</v>
       </c>
       <c r="FF43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG43" t="n">
         <v>0</v>
       </c>
       <c r="FH43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS43" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="FT43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF43" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="GG43" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="GH43" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="GI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25840,7 +22172,7 @@
         <v>0</v>
       </c>
       <c r="BF44" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BG44" t="n">
         <v>0</v>
@@ -26155,94 +22487,10 @@
         <v>0</v>
       </c>
       <c r="FG44" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="FH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI44" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="GJ44" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
     </row>
   </sheetData>
